--- a/2024MAR_B6_Lab_Check.xlsx
+++ b/2024MAR_B6_Lab_Check.xlsx
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -780,10 +780,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -791,10 +791,10 @@
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -835,10 +835,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
